--- a/biology/Botanique/Aubletella_macoucou/Aubletella_macoucou.xlsx
+++ b/biology/Botanique/Aubletella_macoucou/Aubletella_macoucou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aubletella macoucou est une espèce d'arbres sud-américains, connue uniquement de son échantillon type. C'est l'espèce type du genre Aubletella Pierre.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taxonomie n'est pas clairement définie : après avoir distingué ce taxon du genre Chrysophyllum au XIXe siècle[3], il a été  exclu de la famille des Sapotaceae au XXe siècle[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taxonomie n'est pas clairement définie : après avoir distingué ce taxon du genre Chrysophyllum au XIXe siècle, il a été  exclu de la famille des Sapotaceae au XXe siècle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Macoucou est un grand arbre produisant des fruits jaunes dont la forme rappelle celle d'une poire[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Macoucou est un grand arbre produisant des fruits jaunes dont la forme rappelle celle d'une poire.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aubletella macoucou serait connu uniquement en Guyane.
 </t>
@@ -604,7 +622,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fruits sont réputés excellents.
 </t>
@@ -635,9 +655,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « 1. CHRYSOPHYLLUM (Macoucou) foliis utrinquè glabris, ovato-oblongis, acuminatis; fructu. pyriformi, lutco. (Tabula 92.)
 Arbor excelſa. ; trunco craſſo, triginta-pedali, ad ſummitatem ramoſo. Folia alterna, ovatooblonga, acuminata, glabra, integerrima, ſupernè &amp; internè pallidè virentia, If^evi petiolata. Fructus corymboſi, pyriformes, colons aurantii : caro fublutca, edulis : semina tria, aut quatuor, ovata, acuta, cicatricula notata, nitida, rufeſcenria, putamine fragili, amygdalam recondente, pulpâ albâ, dulci, &amp; eduli obductam.
 Cortex trunci &amp; ramorum vulneratus, folia lacerata, ſuccum lacteum fundunt.
